--- a/biology/Médecine/Pierre-Louis-Napoléon_Chernoviz/Pierre-Louis-Napoléon_Chernoviz.xlsx
+++ b/biology/Médecine/Pierre-Louis-Napoléon_Chernoviz/Pierre-Louis-Napoléon_Chernoviz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre-Louis-Napol%C3%A9on_Chernoviz</t>
+          <t>Pierre-Louis-Napoléon_Chernoviz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Louis-Napoléon Chernoviz (en polonais, Piotr Ludwik Napoleon Czerniewicz, et, en portugais, Pedro Luiz Napoleão Chernoviz), né le 11 septembre 1812 à Łuków (Pologne) et décédé le 30 août 1881 à Paris[1], est un docteur en médecine, écrivain scientifique et éditeur d'origine polonaise, médecin de l'empereur Pierre II du Brésil.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Louis-Napoléon Chernoviz (en polonais, Piotr Ludwik Napoleon Czerniewicz, et, en portugais, Pedro Luiz Napoleão Chernoviz), né le 11 septembre 1812 à Łuków (Pologne) et décédé le 30 août 1881 à Paris, est un docteur en médecine, écrivain scientifique et éditeur d'origine polonaise, médecin de l'empereur Pierre II du Brésil.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre-Louis-Napol%C3%A9on_Chernoviz</t>
+          <t>Pierre-Louis-Napoléon_Chernoviz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une vieille famille polonaise, fils d'un colonel de lanciers polonais, Pierre-Louis-Napoléon Chernoviz commence ses études de médecine à Varsovie jusqu'à la fermeture de son université à la suite des événements de 1830-1831. Ayant pris part à l'insurrection, il s'installe alors en France et sort diplômé de la Faculté de médecine de Montpellier en 1837.
 Il s'installe à Rio de Janeiro au Brésil en 1840, envoyé en mission par le roi Louis-Philippe Ier, et développe avec succès une pratique médicale. Il devient membre l'Académie impériale de médecine (pt) et médecin de l'empereur Pierre II du Brésil. Il est fait chevalier de l'ordre du Christ et commandeur de l'ordre de la Rose.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre-Louis-Napol%C3%A9on_Chernoviz</t>
+          <t>Pierre-Louis-Napoléon_Chernoviz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été donné à une rue du 16e arrondissement de Paris.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre-Louis-Napol%C3%A9on_Chernoviz</t>
+          <t>Pierre-Louis-Napoléon_Chernoviz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Formulario e guia medico, 1841
 Dicionario de medicina popular e das ciensias acessorias
